--- a/Documents/Finance/Timesheets/Max Holland/timesheet_MH_26_05_14.xlsx
+++ b/Documents/Finance/Timesheets/Max Holland/timesheet_MH_26_05_14.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly" sheetId="1" r:id="rId1"/>
@@ -948,40 +948,6 @@
     <xf numFmtId="164" fontId="1" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -989,13 +955,47 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,7 +1330,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D27" sqref="D27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1342,17 +1342,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
@@ -1368,13 +1368,13 @@
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1382,26 +1382,26 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="25"/>
@@ -1410,30 +1410,30 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="25"/>
@@ -1442,20 +1442,20 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="44">
+      <c r="F8" s="41"/>
+      <c r="G8" s="46">
         <v>41785</v>
       </c>
-      <c r="H8" s="49"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="31" t="s">
         <v>8</v>
       </c>
@@ -1753,11 +1753,11 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="3">
         <f>I18</f>
         <v>19</v>
@@ -1770,11 +1770,11 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="3">
         <f>I20</f>
         <v>237.5</v>
@@ -1799,15 +1799,15 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46">
         <v>41794</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -1815,15 +1815,15 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="38" t="s">
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -1831,15 +1831,15 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="45">
-        <v>41794</v>
-      </c>
-      <c r="E27" s="43"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="52">
+        <v>41799</v>
+      </c>
+      <c r="E27" s="45"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -1847,15 +1847,15 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="38" t="s">
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="39"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -1875,34 +1875,19 @@
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
       <c r="J30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A30:C30"/>
@@ -1913,6 +1898,21 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -1938,17 +1938,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
@@ -1977,13 +1977,13 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1991,26 +1991,26 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="25"/>
@@ -2019,28 +2019,28 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="25"/>
@@ -2049,20 +2049,20 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="44">
+      <c r="F9" s="41"/>
+      <c r="G9" s="46">
         <v>39727</v>
       </c>
-      <c r="H9" s="43"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="31" t="s">
         <v>8</v>
       </c>
@@ -2497,11 +2497,11 @@
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="3">
         <f>I27</f>
         <v>8.43</v>
@@ -2514,11 +2514,11 @@
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="3">
         <f>I29</f>
         <v>129.88999999999999</v>
@@ -2543,11 +2543,11 @@
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="43"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -2555,15 +2555,15 @@
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="38" t="s">
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="39"/>
+      <c r="E35" s="49"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -2571,11 +2571,11 @@
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A36" s="53"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="43"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -2583,15 +2583,15 @@
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="38" t="s">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="39"/>
+      <c r="E37" s="49"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -2611,40 +2611,25 @@
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="40" t="str">
+      <c r="A39" s="50" t="str">
         <f>HYPERLINK("http://www.vertex42.com/ExcelTemplates/excel-timesheet.html","Employee Timesheet Template")</f>
         <v>Employee Timesheet Template</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="41" t="str">
+      <c r="G39" s="51" t="str">
         <f>HYPERLINK("http://www.vertex42.com/ExcelTemplates/","Templates by Vertex42.com")</f>
         <v>Templates by Vertex42.com</v>
       </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
       <c r="J39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="A39:C39"/>
@@ -2655,6 +2640,21 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
